--- a/source/data/topologies/Globalcenter_topology.xlsx
+++ b/source/data/topologies/Globalcenter_topology.xlsx
@@ -8,14 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
-    <sheet name="Flows" sheetId="2" r:id="rId2"/>
+    <sheet name="Fibers" sheetId="2" r:id="rId2"/>
+    <sheet name="Flows" sheetId="3" r:id="rId3"/>
+    <sheet name="L3Nodes" sheetId="4" r:id="rId4"/>
+    <sheet name="L3Links" sheetId="5" r:id="rId5"/>
+    <sheet name="Spofs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="142">
   <si>
     <t>LinkName</t>
   </si>
@@ -35,112 +39,112 @@
     <t>CapacityMax</t>
   </si>
   <si>
-    <t>Link-0</t>
-  </si>
-  <si>
-    <t>Link-1</t>
-  </si>
-  <si>
-    <t>Link-2</t>
-  </si>
-  <si>
-    <t>Link-3</t>
-  </si>
-  <si>
-    <t>Link-4</t>
-  </si>
-  <si>
-    <t>Link-5</t>
-  </si>
-  <si>
-    <t>Link-6</t>
-  </si>
-  <si>
-    <t>Link-7</t>
-  </si>
-  <si>
-    <t>Link-8</t>
-  </si>
-  <si>
-    <t>Link-9</t>
-  </si>
-  <si>
-    <t>Link-10</t>
-  </si>
-  <si>
-    <t>Link-11</t>
-  </si>
-  <si>
-    <t>Link-12</t>
-  </si>
-  <si>
-    <t>Link-13</t>
-  </si>
-  <si>
-    <t>Link-14</t>
-  </si>
-  <si>
-    <t>Link-15</t>
-  </si>
-  <si>
-    <t>Link-16</t>
-  </si>
-  <si>
-    <t>Link-17</t>
-  </si>
-  <si>
-    <t>Link-18</t>
-  </si>
-  <si>
-    <t>Link-19</t>
-  </si>
-  <si>
-    <t>Link-20</t>
-  </si>
-  <si>
-    <t>Link-21</t>
-  </si>
-  <si>
-    <t>Link-22</t>
-  </si>
-  <si>
-    <t>Link-23</t>
-  </si>
-  <si>
-    <t>Link-24</t>
-  </si>
-  <si>
-    <t>Link-25</t>
-  </si>
-  <si>
-    <t>Link-26</t>
-  </si>
-  <si>
-    <t>Link-27</t>
-  </si>
-  <si>
-    <t>Link-28</t>
-  </si>
-  <si>
-    <t>Link-29</t>
-  </si>
-  <si>
-    <t>Link-30</t>
-  </si>
-  <si>
-    <t>Link-31</t>
-  </si>
-  <si>
-    <t>Link-32</t>
-  </si>
-  <si>
-    <t>Link-33</t>
-  </si>
-  <si>
-    <t>Link-34</t>
-  </si>
-  <si>
-    <t>Link-35</t>
+    <t>Link_0</t>
+  </si>
+  <si>
+    <t>Link_1</t>
+  </si>
+  <si>
+    <t>Link_2</t>
+  </si>
+  <si>
+    <t>Link_3</t>
+  </si>
+  <si>
+    <t>Link_4</t>
+  </si>
+  <si>
+    <t>Link_5</t>
+  </si>
+  <si>
+    <t>Link_6</t>
+  </si>
+  <si>
+    <t>Link_7</t>
+  </si>
+  <si>
+    <t>Link_8</t>
+  </si>
+  <si>
+    <t>Link_9</t>
+  </si>
+  <si>
+    <t>Link_10</t>
+  </si>
+  <si>
+    <t>Link_11</t>
+  </si>
+  <si>
+    <t>Link_12</t>
+  </si>
+  <si>
+    <t>Link_13</t>
+  </si>
+  <si>
+    <t>Link_14</t>
+  </si>
+  <si>
+    <t>Link_15</t>
+  </si>
+  <si>
+    <t>Link_16</t>
+  </si>
+  <si>
+    <t>Link_17</t>
+  </si>
+  <si>
+    <t>Link_18</t>
+  </si>
+  <si>
+    <t>Link_19</t>
+  </si>
+  <si>
+    <t>Link_20</t>
+  </si>
+  <si>
+    <t>Link_21</t>
+  </si>
+  <si>
+    <t>Link_22</t>
+  </si>
+  <si>
+    <t>Link_23</t>
+  </si>
+  <si>
+    <t>Link_24</t>
+  </si>
+  <si>
+    <t>Link_25</t>
+  </si>
+  <si>
+    <t>Link_26</t>
+  </si>
+  <si>
+    <t>Link_27</t>
+  </si>
+  <si>
+    <t>Link_28</t>
+  </si>
+  <si>
+    <t>Link_29</t>
+  </si>
+  <si>
+    <t>Link_30</t>
+  </si>
+  <si>
+    <t>Link_31</t>
+  </si>
+  <si>
+    <t>Link_32</t>
+  </si>
+  <si>
+    <t>Link_33</t>
+  </si>
+  <si>
+    <t>Link_34</t>
+  </si>
+  <si>
+    <t>Link_35</t>
   </si>
   <si>
     <t>Minneapolis_0</t>
@@ -170,6 +174,24 @@
     <t>Chicago_8</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>dst</t>
+  </si>
+  <si>
+    <t>rtt</t>
+  </si>
+  <si>
+    <t>max_fp</t>
+  </si>
+  <si>
+    <t>spectrum_size_ghz_per_fp</t>
+  </si>
+  <si>
     <t>COS</t>
   </si>
   <si>
@@ -177,6 +199,252 @@
   </si>
   <si>
     <t>BRONZE</t>
+  </si>
+  <si>
+    <t>l1_node</t>
+  </si>
+  <si>
+    <t>stub</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>min_capacity_gbps</t>
+  </si>
+  <si>
+    <t>max_capacity_gbps</t>
+  </si>
+  <si>
+    <t>final_capacity_gpbs</t>
+  </si>
+  <si>
+    <t>igp</t>
+  </si>
+  <si>
+    <t>fiber_name_map_spectrum</t>
+  </si>
+  <si>
+    <t>ip_Link_0</t>
+  </si>
+  <si>
+    <t>ip_Link_1</t>
+  </si>
+  <si>
+    <t>ip_Link_2</t>
+  </si>
+  <si>
+    <t>ip_Link_3</t>
+  </si>
+  <si>
+    <t>ip_Link_4</t>
+  </si>
+  <si>
+    <t>ip_Link_5</t>
+  </si>
+  <si>
+    <t>ip_Link_6</t>
+  </si>
+  <si>
+    <t>ip_Link_7</t>
+  </si>
+  <si>
+    <t>ip_Link_8</t>
+  </si>
+  <si>
+    <t>ip_Link_9</t>
+  </si>
+  <si>
+    <t>ip_Link_10</t>
+  </si>
+  <si>
+    <t>ip_Link_11</t>
+  </si>
+  <si>
+    <t>ip_Link_12</t>
+  </si>
+  <si>
+    <t>ip_Link_13</t>
+  </si>
+  <si>
+    <t>ip_Link_14</t>
+  </si>
+  <si>
+    <t>ip_Link_15</t>
+  </si>
+  <si>
+    <t>ip_Link_16</t>
+  </si>
+  <si>
+    <t>ip_Link_17</t>
+  </si>
+  <si>
+    <t>ip_Link_18</t>
+  </si>
+  <si>
+    <t>ip_Link_19</t>
+  </si>
+  <si>
+    <t>ip_Link_20</t>
+  </si>
+  <si>
+    <t>ip_Link_21</t>
+  </si>
+  <si>
+    <t>ip_Link_22</t>
+  </si>
+  <si>
+    <t>ip_Link_23</t>
+  </si>
+  <si>
+    <t>ip_Link_24</t>
+  </si>
+  <si>
+    <t>ip_Link_25</t>
+  </si>
+  <si>
+    <t>ip_Link_26</t>
+  </si>
+  <si>
+    <t>ip_Link_27</t>
+  </si>
+  <si>
+    <t>ip_Link_28</t>
+  </si>
+  <si>
+    <t>ip_Link_29</t>
+  </si>
+  <si>
+    <t>ip_Link_30</t>
+  </si>
+  <si>
+    <t>ip_Link_31</t>
+  </si>
+  <si>
+    <t>ip_Link_32</t>
+  </si>
+  <si>
+    <t>ip_Link_33</t>
+  </si>
+  <si>
+    <t>ip_Link_34</t>
+  </si>
+  <si>
+    <t>ip_Link_35</t>
+  </si>
+  <si>
+    <t>Link_0:5</t>
+  </si>
+  <si>
+    <t>Link_1:5</t>
+  </si>
+  <si>
+    <t>Link_2:5</t>
+  </si>
+  <si>
+    <t>Link_3:5</t>
+  </si>
+  <si>
+    <t>Link_4:5</t>
+  </si>
+  <si>
+    <t>Link_5:5</t>
+  </si>
+  <si>
+    <t>Link_6:5</t>
+  </si>
+  <si>
+    <t>Link_7:5</t>
+  </si>
+  <si>
+    <t>Link_8:5</t>
+  </si>
+  <si>
+    <t>Link_9:5</t>
+  </si>
+  <si>
+    <t>Link_10:5</t>
+  </si>
+  <si>
+    <t>Link_11:5</t>
+  </si>
+  <si>
+    <t>Link_12:5</t>
+  </si>
+  <si>
+    <t>Link_13:5</t>
+  </si>
+  <si>
+    <t>Link_14:5</t>
+  </si>
+  <si>
+    <t>Link_15:5</t>
+  </si>
+  <si>
+    <t>Link_16:5</t>
+  </si>
+  <si>
+    <t>Link_17:5</t>
+  </si>
+  <si>
+    <t>Link_18:5</t>
+  </si>
+  <si>
+    <t>Link_19:5</t>
+  </si>
+  <si>
+    <t>Link_20:5</t>
+  </si>
+  <si>
+    <t>Link_21:5</t>
+  </si>
+  <si>
+    <t>Link_22:5</t>
+  </si>
+  <si>
+    <t>Link_23:5</t>
+  </si>
+  <si>
+    <t>Link_24:5</t>
+  </si>
+  <si>
+    <t>Link_25:5</t>
+  </si>
+  <si>
+    <t>Link_26:5</t>
+  </si>
+  <si>
+    <t>Link_27:5</t>
+  </si>
+  <si>
+    <t>Link_28:5</t>
+  </si>
+  <si>
+    <t>Link_29:5</t>
+  </si>
+  <si>
+    <t>Link_30:5</t>
+  </si>
+  <si>
+    <t>Link_31:5</t>
+  </si>
+  <si>
+    <t>Link_32:5</t>
+  </si>
+  <si>
+    <t>Link_33:5</t>
+  </si>
+  <si>
+    <t>Link_34:5</t>
+  </si>
+  <si>
+    <t>Link_35:5</t>
+  </si>
+  <si>
+    <t>fiber_names</t>
+  </si>
+  <si>
+    <t>cos_to_protect</t>
   </si>
 </sst>
 </file>
@@ -574,7 +842,7 @@
         <v>43</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -597,7 +865,7 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -620,7 +888,7 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -643,7 +911,7 @@
         <v>46</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -689,7 +957,7 @@
         <v>48</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -735,7 +1003,7 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -758,7 +1026,7 @@
         <v>44</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -781,7 +1049,7 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -827,7 +1095,7 @@
         <v>47</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -873,7 +1141,7 @@
         <v>49</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -896,7 +1164,7 @@
         <v>50</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -919,7 +1187,7 @@
         <v>45</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -942,7 +1210,7 @@
         <v>46</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -988,7 +1256,7 @@
         <v>48</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1011,7 +1279,7 @@
         <v>49</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1057,7 +1325,7 @@
         <v>46</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1080,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1103,7 +1371,7 @@
         <v>48</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1126,7 +1394,7 @@
         <v>49</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1149,7 +1417,7 @@
         <v>50</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1195,7 +1463,7 @@
         <v>48</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1241,7 +1509,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1287,7 +1555,7 @@
         <v>49</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1310,7 +1578,7 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1379,7 +1647,7 @@
         <v>50</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1394,6 +1662,867 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -1412,10 +2541,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1432,10 +2561,10 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1452,10 +2581,10 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>441</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1472,10 +2601,10 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F4">
-        <v>714</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1492,10 +2621,10 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F5">
-        <v>142</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1512,10 +2641,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>383</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1532,10 +2661,10 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>85</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1552,10 +2681,10 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>199</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1572,10 +2701,10 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <v>940</v>
+        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1592,10 +2721,10 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10">
-        <v>138</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1612,10 +2741,10 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F11">
-        <v>932</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1632,10 +2761,10 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F12">
-        <v>255</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1652,10 +2781,10 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F13">
-        <v>739</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1672,10 +2801,10 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F14">
-        <v>565</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1692,10 +2821,10 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F15">
-        <v>529</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1712,10 +2841,10 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>601</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1732,10 +2861,10 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F17">
-        <v>751</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1752,10 +2881,10 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F18">
-        <v>592</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1772,10 +2901,10 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F19">
-        <v>844</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1792,10 +2921,10 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F20">
-        <v>848</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1812,10 +2941,10 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F21">
-        <v>106</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1832,10 +2961,10 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F22">
-        <v>707</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1852,10 +2981,10 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>860</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1872,10 +3001,10 @@
         <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F24">
-        <v>75</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1892,10 +3021,10 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F25">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1912,10 +3041,10 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F26">
-        <v>728</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1932,10 +3061,10 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F27">
-        <v>693</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1952,10 +3081,10 @@
         <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F28">
-        <v>791</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1972,10 +3101,10 @@
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F29">
-        <v>510</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1992,10 +3121,10 @@
         <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F30">
-        <v>954</v>
+        <v>847</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2012,10 +3141,10 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F31">
-        <v>151</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2032,10 +3161,10 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F32">
-        <v>526</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2052,10 +3181,10 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2072,10 +3201,10 @@
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F34">
-        <v>951</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2092,10 +3221,10 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F35">
-        <v>241</v>
+        <v>913</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2112,10 +3241,10 @@
         <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F36">
-        <v>441</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2132,10 +3261,1264 @@
         <v>50</v>
       </c>
       <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>131</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>214</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>272</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>743</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>692</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>982</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>589</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>532</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>769</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>154</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>911</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>566</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>549</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>678</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <v>845</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19">
+        <v>97</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>402</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>363</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>515</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>973</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>889</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1000</v>
+      </c>
+      <c r="G25">
+        <v>149</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>292</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>321</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28">
+        <v>450</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <v>112</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <v>634</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1000</v>
+      </c>
+      <c r="G31">
+        <v>770</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>334</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33">
+        <v>659</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <v>918</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1000</v>
+      </c>
+      <c r="G35">
+        <v>43</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1000</v>
+      </c>
+      <c r="G36">
+        <v>120</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
       <c r="F37">
-        <v>22</v>
+        <v>1000</v>
+      </c>
+      <c r="G37">
+        <v>687</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
